--- a/hdg_fp.xlsx
+++ b/hdg_fp.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>frozenset({'essig', 'butter'})</t>
+          <t>frozenset({'butter', 'essig'})</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>frozenset({'weizenmehl', 'butter'})</t>
+          <t>frozenset({'butter', 'weizenmehl'})</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>frozenset({'zwieback', 'butter'})</t>
+          <t>frozenset({'butter', 'zwieback'})</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>frozenset({'butter', 'muskat', 'fleischbrühe'})</t>
+          <t>frozenset({'muskat', 'butter', 'fleischbrühe'})</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>frozenset({'muskat', 'zwieback', 'butter'})</t>
+          <t>frozenset({'muskat', 'butter', 'zwieback'})</t>
         </is>
       </c>
       <c r="D20" t="n">
